--- a/biology/Zoologie/Grimpar_nasican/Grimpar_nasican.xlsx
+++ b/biology/Zoologie/Grimpar_nasican/Grimpar_nasican.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nasica longirostris
 Le Grimpar nasican (Nasica longirostris) est une espèce de passereaux de la sous-famille des Dendrocolaptinae, les grimpars. On la trouve dans le bassin de l'Amazone au Brésil, en Colombie amazonienne, en Équateur, au Pérou et en Bolivie ainsi que dans la partie moyenne et supérieure du bassin de l'Orénoque au Venezuela. Elle est également présente dans la plus grande partie de la Guyane française limitrophe du nord du bassin amazonien et de l'État brésilien d'Amapá. Ses habitats naturels sont les marécages et les forêts humides des plaines subtropicales ou tropicales.
